--- a/CoreRulebook/Data/Spells/transfiguration.xlsx
+++ b/CoreRulebook/Data/Spells/transfiguration.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="183">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Discipline</t>
+  </si>
+  <si>
     <t xml:space="preserve">Incantation</t>
   </si>
   <si>
@@ -40,18 +43,6 @@
     <t xml:space="preserve">Level</t>
   </si>
   <si>
-    <t xml:space="preserve">Fortitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difficulty</t>
-  </si>
-  <si>
     <t xml:space="preserve">Resist</t>
   </si>
   <si>
@@ -67,6 +58,9 @@
     <t xml:space="preserve">Alter Hair</t>
   </si>
   <si>
+    <t xml:space="preserve">Alteration</t>
+  </si>
+  <si>
     <t xml:space="preserve">crinus muto</t>
   </si>
   <si>
@@ -76,12 +70,6 @@
     <t xml:space="preserve">2 hours</t>
   </si>
   <si>
-    <t xml:space="preserve">CHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deception</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alters the colour and style of the casters hair. Useful for disguises. </t>
   </si>
   <si>
@@ -92,9 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve">1 hour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN</t>
   </si>
   <si>
     <t xml:space="preserve">Transform a 200g non-sapient animal or object into a different animal or solid object. 
@@ -116,15 +101,15 @@
     <t xml:space="preserve">2 days</t>
   </si>
   <si>
-    <t xml:space="preserve">INT</t>
-  </si>
-  <si>
     <t xml:space="preserve">Causes the colour of an object to change into the colour specified by the caster. </t>
   </si>
   <si>
     <t xml:space="preserve">Conjure Flowers</t>
   </si>
   <si>
+    <t xml:space="preserve">Conjuration</t>
+  </si>
+  <si>
     <t xml:space="preserve">orchideous</t>
   </si>
   <si>
@@ -140,9 +125,6 @@
     <t xml:space="preserve">voco dens</t>
   </si>
   <si>
-    <t xml:space="preserve">POW</t>
-  </si>
-  <si>
     <t xml:space="preserve">ATH (Speed)</t>
   </si>
   <si>
@@ -156,9 +138,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ritual(5 turns)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flora \&amp; Fauna</t>
   </si>
   <si>
     <t xml:space="preserve">Used to mix a potion. See page \pageref{S:Enchanting} for details. </t>
@@ -233,9 +212,6 @@
     <t xml:space="preserve">facere</t>
   </si>
   <si>
-    <t xml:space="preserve">Dexterity</t>
-  </si>
-  <si>
     <t xml:space="preserve">Construct an object from raw materials, assembling it at a molecular level. May manipulate 500g of raw material in this fashion, doubling the mass with every power point dedicated. Consruction is permanent, and cannot be undone. </t>
   </si>
   <si>
@@ -248,9 +224,6 @@
     <t xml:space="preserve">Grey bolt</t>
   </si>
   <si>
-    <t xml:space="preserve">INT </t>
-  </si>
-  <si>
     <t xml:space="preserve">Freezes a non-living object into its current form, and can no longer bend or flex. Object gains an effective AC of 25. </t>
   </si>
   <si>
@@ -290,9 +263,6 @@
     <t xml:space="preserve">(2 + 2$\times$ PP) minutes</t>
   </si>
   <si>
-    <t xml:space="preserve">Arcane</t>
-  </si>
-  <si>
     <t xml:space="preserve">Summon a Weak Avatar of your choice (Storm, Ice or Fire) to be under your command .</t>
   </si>
   <si>
@@ -348,9 +318,6 @@
   </si>
   <si>
     <t xml:space="preserve">30 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precision</t>
   </si>
   <si>
     <t xml:space="preserve">Conjure a 200g inanimate, non-magical object from thin air. Each power point dedicated doubles the mass/complexity of the object that can be conjured</t>
@@ -464,9 +431,6 @@
   </si>
   <si>
     <t xml:space="preserve">Golden rays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POW </t>
   </si>
   <si>
     <t xml:space="preserve">When cast on any transfigured or conjured object, makes the transformation permanent and removes the time constraint. When a counterspell is used, this spell is removed and the countdown resumes. </t>
@@ -507,12 +471,6 @@
     <t xml:space="preserve">piertotom locomotum</t>
   </si>
   <si>
-    <t xml:space="preserve">SPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willpower</t>
-  </si>
-  <si>
     <t xml:space="preserve">Transform nearby statues, trees and other inanimate objects into powerful guardians to fight by your side. Guardians are considered as Capable Stone Golems unless otherwise indicated. </t>
   </si>
   <si>
@@ -608,9 +566,6 @@
     <t xml:space="preserve">30 seconds</t>
   </si>
   <si>
-    <t xml:space="preserve">EMP</t>
-  </si>
-  <si>
     <t xml:space="preserve">Conjures a shower of golden, shimmering particles to cover every person and surface in a (2+PP)m radius. Creatures with an INT &lt; 9 become distracted and vulnerable to critical strikes for one turn. </t>
   </si>
   <si>
@@ -636,6 +591,18 @@
   </si>
   <si>
     <t xml:space="preserve">Sculpt a target solid object with your mind, as if it were made of soft clay. The total mass of the object must remain constant, but you can shift and scult the matter at will. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tarditia poppinia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makes the target container 2 times (+1 for each power point) larger on the inside than it is on the outside, and divides the total weight by the same factor.</t>
   </si>
 </sst>
 </file>
@@ -756,7 +723,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -781,14 +748,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -807,14 +766,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -902,30 +853,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:AMJ42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="86.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="36.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="34.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="86.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="36.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="12" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -956,1346 +905,1083 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>32</v>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>36</v>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="G6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>42</v>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="G7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>46</v>
+      <c r="J7" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>51</v>
+      <c r="J8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>55</v>
+      <c r="J9" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>58</v>
+      <c r="J10" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="G11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G11" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>26</v>
+      <c r="J11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>67</v>
+      <c r="J12" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>70</v>
+      <c r="J13" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>75</v>
+      <c r="J14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>81</v>
+      <c r="J15" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G16" s="1" t="n">
-        <v>7</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>93</v>
+      <c r="J17" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L18" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="I18" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>96</v>
+      <c r="J18" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G19" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J19" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>102</v>
+      <c r="J19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="G20" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J20" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>107</v>
+      <c r="J20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="G21" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G21" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>110</v>
+      <c r="J21" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G22" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>102</v>
+      <c r="J22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="G23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G23" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>117</v>
+      <c r="J23" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="G24" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G24" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>102</v>
+      <c r="J24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F25" s="1" t="n">
+      <c r="G25" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G25" s="1" t="n">
-        <v>8</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G26" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>129</v>
+      <c r="J26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G27" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>133</v>
+      <c r="J27" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="G28" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G28" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J28" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>140</v>
+      <c r="J28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F29" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G29" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J29" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="29.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F30" s="1" t="n">
+      <c r="G30" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G30" s="1" t="n">
-        <v>15</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J30" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>148</v>
+        <v>113</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G31" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J31" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>153</v>
+      <c r="J31" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F32" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G32" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J32" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>157</v>
+      <c r="J32" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F33" s="1" t="n">
+      <c r="G33" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G33" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J33" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>160</v>
+      <c r="J33" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" s="8" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="0"/>
+      <c r="F35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="AMG35" s="0"/>
+      <c r="AMH35" s="0"/>
+      <c r="AMI35" s="0"/>
+      <c r="AMJ35" s="0"/>
+    </row>
+    <row r="36" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="0"/>
+      <c r="F36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="K36" s="7"/>
+      <c r="AMG36" s="0"/>
+      <c r="AMH36" s="0"/>
+      <c r="AMI36" s="0"/>
+      <c r="AMJ36" s="0"/>
+    </row>
+    <row r="37" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="G37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J34" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="K34" s="1" t="s">
+      <c r="K37" s="7"/>
+      <c r="AMG37" s="0"/>
+      <c r="AMH37" s="0"/>
+      <c r="AMI37" s="0"/>
+      <c r="AMJ37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M34" s="2" t="s">
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="N34" s="2" t="s">
+      <c r="D38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="0"/>
+      <c r="F38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="35" s="10" customFormat="true" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="0"/>
-      <c r="E35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G35" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J35" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="N35" s="9"/>
-    </row>
-    <row r="36" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="0"/>
-      <c r="E36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G36" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J36" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="N36" s="9"/>
-    </row>
-    <row r="37" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="F37" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="N37" s="9"/>
-    </row>
-    <row r="38" customFormat="false" ht="38.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="0"/>
-      <c r="E38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J38" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F39" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G39" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J39" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>185</v>
+      <c r="J39" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F40" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G40" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J40" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>190</v>
+      <c r="J40" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F41" s="1" t="n">
+      <c r="G41" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G41" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J41" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>193</v>
+      <c r="J41" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="11" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Spells/transfiguration.xlsx
+++ b/CoreRulebook/Data/Spells/transfiguration.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Spells\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41489DF-4882-45CE-ABC9-8B3CD9A982C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="10350" yWindow="4950" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,66 +25,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="183">
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incantation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TravelType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResistDV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HigherLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alter Hair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crinus muto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 hours</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="188">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Discipline</t>
+  </si>
+  <si>
+    <t>Incantation</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>TravelType</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Resist</t>
+  </si>
+  <si>
+    <t>ResistDV</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>HigherLevel</t>
+  </si>
+  <si>
+    <t>Alter Hair</t>
+  </si>
+  <si>
+    <t>Alteration</t>
+  </si>
+  <si>
+    <t>crinus muto</t>
+  </si>
+  <si>
+    <t>Instant</t>
+  </si>
+  <si>
+    <t>2 hours</t>
   </si>
   <si>
     <t xml:space="preserve">Alters the colour and style of the casters hair. Useful for disguises. </t>
   </si>
   <si>
-    <t xml:space="preserve">Basic Transmutation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formum mutatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 hour</t>
+    <t>Basic Transmutation</t>
+  </si>
+  <si>
+    <t>formum mutatio</t>
+  </si>
+  <si>
+    <t>1 hour</t>
   </si>
   <si>
     <t xml:space="preserve">Transform a 200g non-sapient animal or object into a different animal or solid object. 
@@ -89,67 +94,67 @@
     <t xml:space="preserve">A character above 6th level may add 1 free PP for every 3 character levels above 3rd. </t>
   </si>
   <si>
-    <t xml:space="preserve">Change Colour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pigmentus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolt of specified colour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 days</t>
+    <t>Change Colour</t>
+  </si>
+  <si>
+    <t>pigmentus</t>
+  </si>
+  <si>
+    <t>Bolt of specified colour</t>
+  </si>
+  <si>
+    <t>2 days</t>
   </si>
   <si>
     <t xml:space="preserve">Causes the colour of an object to change into the colour specified by the caster. </t>
   </si>
   <si>
-    <t xml:space="preserve">Conjure Flowers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orchideous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjures flowers from thin air.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Launch Spike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">voco dens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATH (Speed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjure (1+PP) enormous spikes to transfigure itself from the surrounding walls/floor, impaling the target. Each spike does 1d6 piercing damage. Resist for half damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An expert-level caster may do 1d12 piercing damage per spike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potion Mixing Spell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual(5 turns)</t>
+    <t>Conjure Flowers</t>
+  </si>
+  <si>
+    <t>Conjuration</t>
+  </si>
+  <si>
+    <t>orchideous</t>
+  </si>
+  <si>
+    <t>3 days</t>
+  </si>
+  <si>
+    <t>Conjures flowers from thin air.</t>
+  </si>
+  <si>
+    <t>Launch Spike</t>
+  </si>
+  <si>
+    <t>voco dens</t>
+  </si>
+  <si>
+    <t>ATH (Speed)</t>
+  </si>
+  <si>
+    <t>Conjure (1+PP) enormous spikes to transfigure itself from the surrounding walls/floor, impaling the target. Each spike does 1d6 piercing damage. Resist for half damage.</t>
+  </si>
+  <si>
+    <t>An expert-level caster may do 1d12 piercing damage per spike</t>
+  </si>
+  <si>
+    <t>Potion Mixing Spell</t>
+  </si>
+  <si>
+    <t>Ritual(5 turns)</t>
   </si>
   <si>
     <t xml:space="preserve">Used to mix a potion. See page \pageref{S:Enchanting} for details. </t>
   </si>
   <si>
-    <t xml:space="preserve">Silver Shield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">argentipus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver Mist</t>
+    <t>Silver Shield</t>
+  </si>
+  <si>
+    <t>argentipus</t>
+  </si>
+  <si>
+    <t>Silver Mist</t>
   </si>
   <si>
     <t xml:space="preserve">Conjures a floating silver shield from thin air, to defend you. Shield absorbs both physical and magical attacks for up to (15+2$\times$PP) damage points, before breaking. The caster has limited control over the shield whilst it is active, using a major action to move it up to 3m in any direction.  </t>
@@ -162,7 +167,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">When cast by a character above 10</t>
+      <t>When cast by a character above 10</t>
     </r>
     <r>
       <rPr>
@@ -172,7 +177,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -185,142 +190,142 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Steelclaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ferscabere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfigures an animal{\apos}s claws into large steel talons, increasing their physical damage by (5 + 2$\times$PP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjure Bubble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ebublio</t>
+    <t>Steelclaw</t>
+  </si>
+  <si>
+    <t>ferscabere</t>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
+  <si>
+    <t>Transfigures an animal{\apos}s claws into large steel talons, increasing their physical damage by (5 + 2$\times$PP)</t>
+  </si>
+  <si>
+    <t>Conjure Bubble</t>
+  </si>
+  <si>
+    <t>ebublio</t>
   </si>
   <si>
     <t xml:space="preserve">Conjures a large, hard-to-pop, airtight, spherical bubble radius specified by the caster (max: 2m). The bubble can use to encase enemies, or to protect the caster. The bubble has an AC of 5, and is immune to acid damage. </t>
   </si>
   <si>
-    <t xml:space="preserve">Fabricate Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facere</t>
+    <t>Fabricate Object</t>
+  </si>
+  <si>
+    <t>facere</t>
   </si>
   <si>
     <t xml:space="preserve">Construct an object from raw materials, assembling it at a molecular level. May manipulate 500g of raw material in this fashion, doubling the mass with every power point dedicated. Consruction is permanent, and cannot be undone. </t>
   </si>
   <si>
-    <t xml:space="preserve">Harden Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grey bolt</t>
+    <t>Harden Object</t>
+  </si>
+  <si>
+    <t>duro</t>
+  </si>
+  <si>
+    <t>Grey bolt</t>
   </si>
   <si>
     <t xml:space="preserve">Freezes a non-living object into its current form, and can no longer bend or flex. Object gains an effective AC of 25. </t>
   </si>
   <si>
-    <t xml:space="preserve">Trecherous Terrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transgresso</t>
+    <t>Trecherous Terrain</t>
+  </si>
+  <si>
+    <t>transgresso</t>
   </si>
   <si>
     <t xml:space="preserve">Transform the ground in a 5m radius around target into a deep bog, a bed of sharpened blades, or into a sticky mess, with the associated terrain costs. </t>
   </si>
   <si>
-    <t xml:space="preserve">Summon Snake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">serpensortia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 minutes</t>
+    <t>Summon Snake</t>
+  </si>
+  <si>
+    <t>serpensortia</t>
+  </si>
+  <si>
+    <t>10 minutes</t>
   </si>
   <si>
     <t xml:space="preserve">Summons a venomous snake out of the tip of the caster{\apos}s wand. The snake has 8HP and does 1d6 poison damage upon biting. Every extra power point gives the snake +1 HP and +1 attack. </t>
   </si>
   <si>
-    <t xml:space="preserve">When cast by an expert-level caster, may summon 1d4 snakes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summon Weak Avatar</t>
+    <t>When cast by an expert-level caster, may summon 1d4 snakes.</t>
+  </si>
+  <si>
+    <t>Summon Weak Avatar</t>
   </si>
   <si>
     <t xml:space="preserve">elementos </t>
   </si>
   <si>
-    <t xml:space="preserve">Ritual (5 minutes)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2 + 2$\times$ PP) minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summon a Weak Avatar of your choice (Storm, Ice or Fire) to be under your command .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thick Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temporio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imperceptible ripple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 minute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATH (Strength)</t>
+    <t>Ritual (5 minutes)</t>
+  </si>
+  <si>
+    <t>(2 + 2$\times$ PP) minutes</t>
+  </si>
+  <si>
+    <t>Summon a Weak Avatar of your choice (Storm, Ice or Fire) to be under your command .</t>
+  </si>
+  <si>
+    <t>Thick Air</t>
+  </si>
+  <si>
+    <t>temporio</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Imperceptible ripple</t>
+  </si>
+  <si>
+    <t>1 minute</t>
+  </si>
+  <si>
+    <t>ATH (Strength)</t>
   </si>
   <si>
     <t xml:space="preserve">Transforms the air around the target into a thick soup, slowing their movement by (20+10 $\times$ PP) \%. Resist for half the speed reduction. </t>
   </si>
   <si>
-    <t xml:space="preserve">Alter Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">engorgio/reducio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 minutes</t>
+    <t>Alter Size</t>
+  </si>
+  <si>
+    <t>engorgio/reducio</t>
+  </si>
+  <si>
+    <t>White bolt</t>
+  </si>
+  <si>
+    <t>5 minutes</t>
   </si>
   <si>
     <t xml:space="preserve">Multiply or divide the size of a target by (2 + PP), target may resist by performing a SPR(endurance) Resist check against the casting check.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Binding Ropes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incarcerous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjures thick ropes from thin air, to wrap around the target, immobilising them. Target may Resist once per turn to break free.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjure Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">siestum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjure a 200g inanimate, non-magical object from thin air. Each power point dedicated doubles the mass/complexity of the object that can be conjured</t>
+    <t>Binding Ropes</t>
+  </si>
+  <si>
+    <t>incarcerous</t>
+  </si>
+  <si>
+    <t>Conjures thick ropes from thin air, to wrap around the target, immobilising them. Target may Resist once per turn to break free.</t>
+  </si>
+  <si>
+    <t>Conjure Object</t>
+  </si>
+  <si>
+    <t>siestum</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
+  </si>
+  <si>
+    <t>Conjure a 200g inanimate, non-magical object from thin air. Each power point dedicated doubles the mass/complexity of the object that can be conjured</t>
   </si>
   <si>
     <t xml:space="preserve">A character above 9th level may add 1 free PP for every 3 character levels above 6th. </t>
@@ -329,10 +334,10 @@
     <t xml:space="preserve">Create Golem </t>
   </si>
   <si>
-    <t xml:space="preserve">lapis libiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (1 week)</t>
+    <t>lapis libiri</t>
+  </si>
+  <si>
+    <t>Ritual (1 week)</t>
   </si>
   <si>
     <t xml:space="preserve">Breathe life into a block of inanimate matter, turning it into a hulking Golem. Basic spell produces a Weak Stone Golem. 1 power point gives a weak iron golem, 2 gives a weak crystal golem, 3 a capable stone golem and so on. Require a large amount of the golem material to cast. </t>
@@ -344,93 +349,93 @@
     <t xml:space="preserve">Enchantment Ritual </t>
   </si>
   <si>
-    <t xml:space="preserve">Ritual (1 day)</t>
+    <t>Ritual (1 day)</t>
   </si>
   <si>
     <t xml:space="preserve">The enchantment ritual used to imbue items with magical effects. See page \pageref{S:Enchanting} for details. </t>
   </si>
   <si>
-    <t xml:space="preserve">Summon Birds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The magical bolt breaks apart into a flock of (6+$4\times$PP) small birds, which do your bidding. Each bird has 3HP and can do 1d4 of piercing damage. The birds will follow the orders of the caster as long as concentration is maintained. When concentration is broken, the birds continue with their last order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Undo Transformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reparifarge</t>
+    <t>Summon Birds</t>
+  </si>
+  <si>
+    <t>avis</t>
+  </si>
+  <si>
+    <t>Blue bolt</t>
+  </si>
+  <si>
+    <t>The magical bolt breaks apart into a flock of (6+$4\times$PP) small birds, which do your bidding. Each bird has 3HP and can do 1d4 of piercing damage. The birds will follow the orders of the caster as long as concentration is maintained. When concentration is broken, the birds continue with their last order.</t>
+  </si>
+  <si>
+    <t>Undo Transformation</t>
+  </si>
+  <si>
+    <t>reparifarge</t>
   </si>
   <si>
     <t xml:space="preserve">Transfiguration countercharm: undoes the effect of any transfiguration spell (but can not banish summoned objects). 
 Spell is successful if casting check exceeds the check that cast the original spell. </t>
   </si>
   <si>
-    <t xml:space="preserve">Vanish Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evanesco</t>
+    <t>Vanish Object</t>
+  </si>
+  <si>
+    <t>evanesco</t>
   </si>
   <si>
     <t xml:space="preserve">Cause a 200g animal or object to vanish, without a trace. 
 Each power point doubles the mass of objects that can be vanished.  You can only vanish a sentient creature if it has a lower POW score than you. </t>
   </si>
   <si>
-    <t xml:space="preserve">Banish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valeo fendus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT (Endurance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC</t>
+    <t>Banish</t>
+  </si>
+  <si>
+    <t>valeo fendus</t>
+  </si>
+  <si>
+    <t>INT (Endurance)</t>
+  </si>
+  <si>
+    <t>CC</t>
   </si>
   <si>
     <t xml:space="preserve">Target a summoned creature, if it fails to Resist, it is banished from this plane of existence. </t>
   </si>
   <si>
-    <t xml:space="preserve">Draconic Guardians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">draconifors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transform 1d6 small objects into miniature dragons to fight by your side. Dragons have (18+3$\times$ PP)HP and do (3+PP)d4 fire damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A master-level caster may transfigure 1d12 small objects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duplicate Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gemino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creates a copy of an object in your possession, which is identical to the first, until it disintegrates 12 hours later.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fix Transformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perpetuus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (30 seconds)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden rays</t>
+    <t>Draconic Guardians</t>
+  </si>
+  <si>
+    <t>draconifors</t>
+  </si>
+  <si>
+    <t>Transform 1d6 small objects into miniature dragons to fight by your side. Dragons have (18+3$\times$ PP)HP and do (3+PP)d4 fire damage.</t>
+  </si>
+  <si>
+    <t>A master-level caster may transfigure 1d12 small objects.</t>
+  </si>
+  <si>
+    <t>Duplicate Object</t>
+  </si>
+  <si>
+    <t>gemino</t>
+  </si>
+  <si>
+    <t>12 hours</t>
+  </si>
+  <si>
+    <t>Creates a copy of an object in your possession, which is identical to the first, until it disintegrates 12 hours later.</t>
+  </si>
+  <si>
+    <t>Fix Transformation</t>
+  </si>
+  <si>
+    <t>perpetuus</t>
+  </si>
+  <si>
+    <t>Ritual (30 seconds)</t>
+  </si>
+  <si>
+    <t>Golden rays</t>
   </si>
   <si>
     <t xml:space="preserve">When cast on any transfigured or conjured object, makes the transformation permanent and removes the time constraint. When a counterspell is used, this spell is removed and the countdown resumes. </t>
@@ -439,25 +444,25 @@
     <t xml:space="preserve">When cast by a caster greater than 15th level, this spell may be cast as an Instant spell. </t>
   </si>
   <si>
-    <t xml:space="preserve">Summon Capable Avatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elementos temporio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3 + 2$\times$ PP) minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summon a Capable Avatar of your choice (Storm, Ice or Fire) to be under your command for the duration of the spell, after which it dissolves.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summon Daggers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fumus defendus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black smoke</t>
+    <t>Summon Capable Avatar</t>
+  </si>
+  <si>
+    <t>elementos temporio</t>
+  </si>
+  <si>
+    <t>(3 + 2$\times$ PP) minutes</t>
+  </si>
+  <si>
+    <t>Summon a Capable Avatar of your choice (Storm, Ice or Fire) to be under your command for the duration of the spell, after which it dissolves.</t>
+  </si>
+  <si>
+    <t>Summon Daggers</t>
+  </si>
+  <si>
+    <t>fumus defendus</t>
+  </si>
+  <si>
+    <t>Black smoke</t>
   </si>
   <si>
     <t xml:space="preserve">Causes (15+$5\times$PP) daggers to coalesce out of smoke, and fly towards the target. 
@@ -465,31 +470,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Fearsome Guardians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">piertotom locomotum</t>
+    <t>Fearsome Guardians</t>
+  </si>
+  <si>
+    <t>piertotom locomotum</t>
   </si>
   <si>
     <t xml:space="preserve">Transform nearby statues, trees and other inanimate objects into powerful guardians to fight by your side. Guardians are considered as Capable Stone Golems unless otherwise indicated. </t>
   </si>
   <si>
-    <t xml:space="preserve">Summon Master Avatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caro elementum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5 + 2$\times$ PP) minutes</t>
+    <t>Summon Master Avatar</t>
+  </si>
+  <si>
+    <t>caro elementum</t>
+  </si>
+  <si>
+    <t>(5 + 2$\times$ PP) minutes</t>
   </si>
   <si>
     <t xml:space="preserve">Summon an Strong Avatar of your choice (Storm, Ice or Fire) to be under your command for 30 turns, after which it dissolves. </t>
   </si>
   <si>
-    <t xml:space="preserve">True Shapeshift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muto</t>
+    <t>True Shapeshift</t>
+  </si>
+  <si>
+    <t>muto</t>
   </si>
   <si>
     <t xml:space="preserve">You assume the form of any object you wish, provided it has approximately the same size as you. You are indistinguishable from this object until you choose to break the spell. </t>
@@ -498,10 +503,10 @@
     <t xml:space="preserve">Slip </t>
   </si>
   <si>
-    <t xml:space="preserve">glisser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN (Dexterity)</t>
+    <t>glisser</t>
+  </si>
+  <si>
+    <t>FIN (Dexterity)</t>
   </si>
   <si>
     <t xml:space="preserve">Whilst concentration is maintained, up to 1 square metre of the targeted surface becomes slippery, as if it was covered in grease. When a target touches the effected surface and fails the resist check, they fall over/ drop the item as appropriate. </t>
@@ -510,129 +515,127 @@
     <t xml:space="preserve">When cast by an expert-level caster, this spell also makes staircases transform into greased chutes. </t>
   </si>
   <si>
-    <t xml:space="preserve">Featherweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pluma gravitas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make the target object as light as a feather, it does not encumber you.
+    <t>Featherweight</t>
+  </si>
+  <si>
+    <t>pluma gravitas</t>
+  </si>
+  <si>
+    <t>Make the target object as light as a feather, it does not encumber you.
 (Note that heavy weapons such as axes may lose their effectiveness when made featherweight)</t>
   </si>
   <si>
-    <t xml:space="preserve">Ironmass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ferrus gravitas</t>
+    <t>Ironmass</t>
+  </si>
+  <si>
+    <t>ferrus gravitas</t>
   </si>
   <si>
     <t xml:space="preserve">Make the target object so heavy that it cannot be lifted by a single individual. </t>
   </si>
   <si>
-    <t xml:space="preserve">Preserve Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tempocessus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver rays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 days</t>
+    <t>Preserve Object</t>
+  </si>
+  <si>
+    <t>tempocessus</t>
+  </si>
+  <si>
+    <t>Silver rays</t>
+  </si>
+  <si>
+    <t>10 days</t>
   </si>
   <si>
     <t xml:space="preserve">The target is unaffected by the flow of time for the duration of the spell, and does not rot or otherwise decay. </t>
   </si>
   <si>
-    <t xml:space="preserve">Alter Aura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change how the object is registers when viewed by magical means (I.e {\it Identify}) – make a mundane object appear magical, or make a wizard appear as a non-sapient creature. 
+    <t>Alter Aura</t>
+  </si>
+  <si>
+    <t>madas</t>
+  </si>
+  <si>
+    <t>Change how the object is registers when viewed by magical means (I.e {\it Identify}) – make a mundane object appear magical, or make a wizard appear as a non-sapient creature. 
 Because this spell truly alters the object\apos{} astral nature, it is not effected by illusion-immunity effects.</t>
   </si>
   <si>
     <t xml:space="preserve">Shimmering Confetti </t>
   </si>
   <si>
-    <t xml:space="preserve">chamak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 seconds</t>
+    <t>chamak</t>
+  </si>
+  <si>
+    <t>Golden particles</t>
+  </si>
+  <si>
+    <t>30 seconds</t>
   </si>
   <si>
     <t xml:space="preserve">Conjures a shower of golden, shimmering particles to cover every person and surface in a (2+PP)m radius. Creatures with an INT &lt; 9 become distracted and vulnerable to critical strikes for one turn. </t>
   </si>
   <si>
-    <t xml:space="preserve">Eternal Flame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bangala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue flames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infinite</t>
+    <t>Eternal Flame</t>
+  </si>
+  <si>
+    <t>bangala</t>
+  </si>
+  <si>
+    <t>Blue flames</t>
+  </si>
+  <si>
+    <t>Infinite</t>
   </si>
   <si>
     <t xml:space="preserve">Summon a minor fire spirit. If you have a glass container, you may use it trap the spirit, whereupon it acts as a dim torch (bright light 1m, dim light 2m) and as a heat source sufficient to keep one person comfortable in artcic conditions. If the spirit is not trapped, caster takes 2d6 fire damage. </t>
   </si>
   <si>
-    <t xml:space="preserve">Sculpt Matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perseids</t>
+    <t>Sculpt Matter</t>
+  </si>
+  <si>
+    <t>perseids</t>
   </si>
   <si>
     <t xml:space="preserve">Sculpt a target solid object with your mind, as if it were made of soft clay. The total mass of the object must remain constant, but you can shift and scult the matter at will. </t>
   </si>
   <si>
-    <t xml:space="preserve">Internal Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tarditia poppinia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makes the target container 2 times (+1 for each power point) larger on the inside than it is on the outside, and divides the total weight by the same factor.</t>
+    <t>Internal Extension</t>
+  </si>
+  <si>
+    <t>tarditia poppinia</t>
+  </si>
+  <si>
+    <t>3 minutes</t>
+  </si>
+  <si>
+    <t>Makes the target container 2 times (+1 for each power point) larger on the inside than it is on the outside, and divides the total weight by the same factor.</t>
+  </si>
+  <si>
+    <t>Bind Being</t>
+  </si>
+  <si>
+    <t>Ritual (5 turns)</t>
+  </si>
+  <si>
+    <t>subjungus</t>
+  </si>
+  <si>
+    <t>POW</t>
+  </si>
+  <si>
+    <t>By inscribing a magic circle on the floor, you create a region where celestial beings from other planes can be trapped and bent to your will. For the next hour, if an Unlife, or other being originating from any plane other than the Mortal Realm, enters into the region, you may cast a pinch of salt into the circle to complete the ritual and attempt to impose your will over it. 
+On a failed resist, the being is bound to serve you for the duration of the spell. If the being was summoned or created by another spell, that spell is extended to match the duration of this spell. The being will obey your commands to the letter for the duration of the spell,and if they are hostile to you, they may do so in a deliberately obtuse fashion.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="8"/>
@@ -675,14 +678,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -698,93 +701,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -843,41 +806,348 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="34.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="86.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="36.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="12" style="1" width="11.57"/>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
+    <col min="2" max="3" width="34.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5703125" style="1"/>
+    <col min="8" max="8" width="14.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="86.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="36.42578125" style="2" customWidth="1"/>
+    <col min="12" max="1020" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -912,7 +1182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,14 +1198,14 @@
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -951,7 +1221,7 @@
       <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -961,7 +1231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -980,14 +1250,14 @@
       <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1003,14 +1273,14 @@
       <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1023,16 +1293,16 @@
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="1">
         <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -1042,7 +1312,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1052,17 +1322,17 @@
       <c r="D7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -1081,7 +1351,7 @@
       <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -1091,7 +1361,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1107,14 +1377,14 @@
       <c r="F9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
@@ -1130,14 +1400,14 @@
       <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="1">
         <v>2</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -1150,10 +1420,10 @@
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="1">
         <v>2</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -1163,7 +1433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
@@ -1182,14 +1452,14 @@
       <c r="F12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="1">
         <v>2</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
@@ -1205,14 +1475,14 @@
       <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="1">
         <v>2</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -1228,7 +1498,7 @@
       <c r="F14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="1">
         <v>2</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -1238,7 +1508,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -1254,14 +1524,14 @@
       <c r="F15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="1">
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
@@ -1280,20 +1550,20 @@
       <c r="F16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="1">
         <v>2</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="1" t="n">
+      <c r="I16" s="1">
         <v>12</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>79</v>
       </c>
@@ -1312,14 +1582,14 @@
       <c r="F17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="1">
         <v>3</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>84</v>
       </c>
@@ -1335,20 +1605,20 @@
       <c r="F18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="1">
         <v>3</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="1" t="n">
+      <c r="I18" s="1">
         <v>15</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>87</v>
       </c>
@@ -1364,7 +1634,7 @@
       <c r="F19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="G19" s="1">
         <v>3</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -1374,7 +1644,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>92</v>
       </c>
@@ -1387,10 +1657,10 @@
       <c r="D20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="1">
         <v>3</v>
       </c>
       <c r="J20" s="2" t="s">
@@ -1400,7 +1670,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>97</v>
       </c>
@@ -1410,17 +1680,17 @@
       <c r="D21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="1">
         <v>0</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="1">
         <v>3</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
@@ -1439,7 +1709,7 @@
       <c r="F22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G22" s="1">
         <v>3</v>
       </c>
       <c r="J22" s="2" t="s">
@@ -1449,7 +1719,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>104</v>
       </c>
@@ -1462,17 +1732,17 @@
       <c r="D23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="1">
         <v>0</v>
       </c>
-      <c r="G23" s="1" t="n">
+      <c r="G23" s="1">
         <v>3</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>107</v>
       </c>
@@ -1485,10 +1755,10 @@
       <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" s="1">
         <v>0</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G24" s="1">
         <v>3</v>
       </c>
       <c r="J24" s="2" t="s">
@@ -1498,7 +1768,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>110</v>
       </c>
@@ -1514,10 +1784,10 @@
       <c r="E25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="1" t="n">
+      <c r="F25" s="1">
         <v>0</v>
       </c>
-      <c r="G25" s="1" t="n">
+      <c r="G25" s="1">
         <v>4</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -1530,7 +1800,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>115</v>
       </c>
@@ -1546,7 +1816,7 @@
       <c r="F26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="G26" s="1">
         <v>4</v>
       </c>
       <c r="J26" s="2" t="s">
@@ -1556,7 +1826,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>119</v>
       </c>
@@ -1572,14 +1842,14 @@
       <c r="F27" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G27" s="1" t="n">
+      <c r="G27" s="1">
         <v>4</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>123</v>
       </c>
@@ -1595,10 +1865,10 @@
       <c r="E28" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="F28" s="1">
         <v>0</v>
       </c>
-      <c r="G28" s="1" t="n">
+      <c r="G28" s="1">
         <v>4</v>
       </c>
       <c r="J28" s="2" t="s">
@@ -1608,7 +1878,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>129</v>
       </c>
@@ -1624,14 +1894,14 @@
       <c r="F29" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G29" s="1" t="n">
+      <c r="G29" s="1">
         <v>4</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>133</v>
       </c>
@@ -1647,10 +1917,10 @@
       <c r="E30" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F30" s="1" t="n">
+      <c r="F30" s="1">
         <v>0</v>
       </c>
-      <c r="G30" s="1" t="n">
+      <c r="G30" s="1">
         <v>4</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -1663,7 +1933,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>137</v>
       </c>
@@ -1679,14 +1949,14 @@
       <c r="F31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="1" t="n">
+      <c r="G31" s="1">
         <v>5</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>140</v>
       </c>
@@ -1702,14 +1972,14 @@
       <c r="F32" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G32" s="1" t="n">
+      <c r="G32" s="1">
         <v>5</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:1024" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>144</v>
       </c>
@@ -1722,17 +1992,17 @@
       <c r="D33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="1" t="n">
+      <c r="F33" s="1">
         <v>0</v>
       </c>
-      <c r="G33" s="1" t="n">
+      <c r="G33" s="1">
         <v>5</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:1024" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>147</v>
       </c>
@@ -1745,10 +2015,10 @@
       <c r="D34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="1" t="n">
+      <c r="F34" s="1">
         <v>0</v>
       </c>
-      <c r="G34" s="1" t="n">
+      <c r="G34" s="1">
         <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -1764,7 +2034,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" s="8" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:1024" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>152</v>
       </c>
@@ -1777,11 +2047,11 @@
       <c r="D35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="0"/>
+      <c r="E35"/>
       <c r="F35" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="5" t="n">
+      <c r="G35" s="5">
         <v>3</v>
       </c>
       <c r="H35" s="3"/>
@@ -1790,12 +2060,12 @@
         <v>154</v>
       </c>
       <c r="K35" s="7"/>
-      <c r="AMG35" s="0"/>
-      <c r="AMH35" s="0"/>
-      <c r="AMI35" s="0"/>
-      <c r="AMJ35" s="0"/>
-    </row>
-    <row r="36" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMG35"/>
+      <c r="AMH35"/>
+      <c r="AMI35"/>
+      <c r="AMJ35"/>
+    </row>
+    <row r="36" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>155</v>
       </c>
@@ -1808,11 +2078,11 @@
       <c r="D36" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="0"/>
+      <c r="E36"/>
       <c r="F36" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="5" t="n">
+      <c r="G36" s="5">
         <v>3</v>
       </c>
       <c r="H36" s="10"/>
@@ -1821,12 +2091,12 @@
         <v>157</v>
       </c>
       <c r="K36" s="7"/>
-      <c r="AMG36" s="0"/>
-      <c r="AMH36" s="0"/>
-      <c r="AMI36" s="0"/>
-      <c r="AMJ36" s="0"/>
-    </row>
-    <row r="37" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMG36"/>
+      <c r="AMH36"/>
+      <c r="AMI36"/>
+      <c r="AMJ36"/>
+    </row>
+    <row r="37" spans="1:1024" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>158</v>
       </c>
@@ -1845,7 +2115,7 @@
       <c r="F37" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G37" s="5" t="n">
+      <c r="G37" s="5">
         <v>1</v>
       </c>
       <c r="H37" s="9"/>
@@ -1854,12 +2124,12 @@
         <v>162</v>
       </c>
       <c r="K37" s="7"/>
-      <c r="AMG37" s="0"/>
-      <c r="AMH37" s="0"/>
-      <c r="AMI37" s="0"/>
-      <c r="AMJ37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMG37"/>
+      <c r="AMH37"/>
+      <c r="AMI37"/>
+      <c r="AMJ37"/>
+    </row>
+    <row r="38" spans="1:1024" ht="45" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>163</v>
       </c>
@@ -1872,18 +2142,18 @@
       <c r="D38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="0"/>
+      <c r="E38"/>
       <c r="F38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="1" t="n">
+      <c r="G38" s="1">
         <v>2</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:1024" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>166</v>
       </c>
@@ -1902,14 +2172,14 @@
       <c r="F39" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G39" s="1" t="n">
+      <c r="G39" s="1">
         <v>1</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:1024" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>171</v>
       </c>
@@ -1928,14 +2198,14 @@
       <c r="F40" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G40" s="1" t="n">
+      <c r="G40" s="1">
         <v>2</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:1024" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>176</v>
       </c>
@@ -1948,17 +2218,17 @@
       <c r="D41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="1" t="n">
+      <c r="F41" s="1">
         <v>0</v>
       </c>
-      <c r="G41" s="1" t="n">
+      <c r="G41" s="1">
         <v>3</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:1024" ht="24" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>179</v>
       </c>
@@ -1975,7 +2245,7 @@
         <v>181</v>
       </c>
       <c r="F42" s="9"/>
-      <c r="G42" s="12" t="n">
+      <c r="G42" s="12">
         <v>4</v>
       </c>
       <c r="H42" s="9"/>
@@ -1984,11 +2254,39 @@
         <v>182</v>
       </c>
     </row>
+    <row r="43" spans="1:1024" ht="90" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="1">
+        <v>5</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I43" s="1">
+        <v>15</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
